--- a/数据整理/stocks/A股/上证主板/603392-万泰生物.xlsx
+++ b/数据整理/stocks/A股/上证主板/603392-万泰生物.xlsx
@@ -451,43 +451,53 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -502,272 +512,372 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>32.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>91.82</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>6.63</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1388</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>009360</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商创新增长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7444</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000452</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方医药保健灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5650</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519670</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银河行业混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3507</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009275</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>融通医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.78</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8064</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161616</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>融通医疗保健行业混合A/B</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22.78</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8064</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004448</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时汇智回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3094</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009361</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商创新增长混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1590</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>090009</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>大成行业轮动混合</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>87.93</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>3.06</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000452</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>南方医药保健灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>93.37</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>5.72</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009275</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>融通医疗保健行业混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>90.10</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>161616</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>融通医疗保健行业混合A/B</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>90.10</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>519670</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>银河行业混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>94.64</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>6.72</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>004448</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>博时汇智回报灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>81.29</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+    <row r="11">
+      <c r="A11" s="2" t="n">
         <v>9</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161727</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商增荣灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>52.76</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>161727</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>招商增荣灵活配置混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>52.76</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>009360</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>招商创新增长混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>89.78</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>8.24</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>009361</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>招商创新增长混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>89.78</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>8.24</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>2</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -777,7 +887,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -798,15 +908,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -818,26 +938,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000960</t>
+          <t>000452</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>招商医药健康产业股票</t>
+          <t>南方医药保健灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>89.23</t>
+          <t>26.40</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.22</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>87.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8823</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -846,26 +976,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000059</t>
+          <t>000960</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国联安中证医药100指数A</t>
+          <t>招商医药健康产业股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.75</t>
+          <t>35.77</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8672</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006569</t>
+          <t>010371</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国联安中证医药100指数C</t>
+          <t>大成成长进取混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.75</t>
+          <t>12.98</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>83.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2214</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -902,25 +1052,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000452</t>
+          <t>501079</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>南方医药保健灵活配置混合</t>
+          <t>大成科创主题 3 年封闭运作灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>87.69</t>
+          <t>18.01</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>7.13</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>78.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1148</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>3</v>
       </c>
     </row>
@@ -930,26 +1090,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010371</t>
+          <t>519670</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>大成成长进取混合A</t>
+          <t>银河行业混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>83.35</t>
+          <t>14.98</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>9.41</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9542</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010372</t>
+          <t>009360</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>大成成长进取混合C</t>
+          <t>招商创新增长混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>83.35</t>
+          <t>15.13</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>9.41</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8594</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>000968</t>
+          <t>090001</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>广发中证养老产业指数A</t>
+          <t>大成价值增长混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>94.81</t>
+          <t>15.49</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>3</v>
+          <t>66.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3795</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002982</t>
+          <t>010372</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>广发中证养老产业指数C</t>
+          <t>大成成长进取混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>94.81</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>3</v>
+          <t>83.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3538</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>501079</t>
+          <t>519019</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>大成科创主题 3 年封闭运作灵活配置混合</t>
+          <t>大成景阳领先混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>78.67</t>
+          <t>7.77</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>6.19</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>3</v>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3364</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1070,25 +1280,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>010808</t>
+          <t>519655</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>达诚策略先锋混合A</t>
+          <t>银河现代服务主题灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>91.71</t>
+          <t>5.35</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2985</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>010809</t>
+          <t>008988</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>达诚策略先锋混合C</t>
+          <t>大成科技创新混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>91.71</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>3</v>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1981</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>001365</t>
+          <t>000059</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>大成正向回报灵活配置混合</t>
+          <t>国联安中证医药100指数A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>91.59</t>
+          <t>13.01</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>7.79</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1626</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>050018</t>
+          <t>000968</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>博时行业轮动混合</t>
+          <t>广发中证养老产业指数A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>93.16</t>
+          <t>9.78</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>9</v>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1516</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>090001</t>
+          <t>001550</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>大成价值增长混合</t>
+          <t>天弘中证医药100指数型发起式 A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>66.23</t>
+          <t>10.64</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2.45</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>10</v>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1330</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>001550</t>
+          <t>090020</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>天弘中证医药100指数型发起式 A</t>
+          <t>大成健康产业混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>93.83</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>5</v>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1186</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>001551</t>
+          <t>050018</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>天弘中证医药100指数型发起式 C</t>
+          <t>博时行业轮动混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>93.83</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>5</v>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1135</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>090016</t>
+          <t>009361</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>大成消费主题混合</t>
+          <t>招商创新增长混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>90.47</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>10</v>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1096</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>090020</t>
+          <t>008989</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>大成健康产业混合</t>
+          <t>大成科技创新混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>89.26</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>8.07</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0952</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -1322,25 +1622,35 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>519019</t>
+          <t>090016</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>大成景阳领先混合</t>
+          <t>大成消费主题混合</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>91.12</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0753</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>519655</t>
+          <t>001551</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>银河现代服务主题灵活配置混合</t>
+          <t>天弘中证医药100指数型发起式 C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>92.79</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>5.58</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>3</v>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0750</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>519670</t>
+          <t>001365</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>银河行业混合</t>
+          <t>大成正向回报灵活配置混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>94.58</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>6.37</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>3</v>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>008988</t>
+          <t>164401</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>大成科技创新混合A</t>
+          <t>前海开源中证健康产业指数</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>91.22</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>4</v>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="24">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>008989</t>
+          <t>010808</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>大成科技创新混合C</t>
+          <t>达诚策略先锋混合A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>91.22</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>4</v>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>164401</t>
+          <t>010809</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>前海开源中证健康产业指数</t>
+          <t>达诚策略先锋混合C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>94.68</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>7</v>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>009360</t>
+          <t>002982</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>招商创新增长混合A</t>
+          <t>广发中证养老产业指数C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>90.25</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>5.68</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>7</v>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>009361</t>
+          <t>006569</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>招商创新增长混合C</t>
+          <t>国联安中证医药100指数C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>90.25</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>5.68</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>7</v>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603392-万泰生物.xlsx
+++ b/数据整理/stocks/A股/上证主板/603392-万泰生物.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1923,4 +1924,1428 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000452</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方医药保健灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8157</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>050026</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时医疗保健行业混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>60.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5822</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000960</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商医药健康产业股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>39.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2636</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001417</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>53.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.0360</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501079</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6669</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519670</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银河行业混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.74</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0591</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010371</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成成长进取混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.78</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0252</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010592</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方医药创新股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>36.34</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>54.32</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8903</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009360</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商创新增长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.52</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8610</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003230</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7346</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519019</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成景阳领先混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5874</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009468</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.28</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5501</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>090020</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成健康产业混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3994</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010585</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>创金合信医药消费股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3633</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519655</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银河现代服务主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3602</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010372</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成成长进取混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3167</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003231</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3018</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008988</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大成科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2708</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010593</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方医药创新股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10.08</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>54.32</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2470</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>050018</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.59</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2083</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>163001</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长信医疗保健行业灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1732</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>090015</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>大成内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>86.22</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1465</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>090016</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>大成消费主题混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1399</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008989</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>大成科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1314</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009361</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商创新增长混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1032</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001365</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>大成正向回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1001</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009469</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0847</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010808</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>达诚策略先锋混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>86.38</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159883</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>永赢中证全指医疗器械交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>97.77</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>164401</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>前海开源中证健康产业指数</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010586</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>创金合信医药消费股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007903</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>83.06</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010809</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>达诚策略先锋混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>86.38</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>960018</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>大成内需增长混合H</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>86.22</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>519987</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长信恒利优势混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011895</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>博时医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603392-万泰生物.xlsx
+++ b/数据整理/stocks/A股/上证主板/603392-万泰生物.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3348,4 +3349,2644 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H69"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161726</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商国证生物医药指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>116.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.5162</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000452</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方医药保健灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>39.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3609</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000960</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商医药健康产业股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>36.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9383</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010887</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.81</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4446</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501079</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3406</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010592</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方医药创新股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>31.32</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0492</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001230</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华医药科技股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.12</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7786</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003230</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7430</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010371</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成成长进取混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6834</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009360</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商创新增长混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6755</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519670</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银河行业混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>15.44</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6330</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519017</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成积极成长混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.75</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5380</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008657</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.25</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4952</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519019</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成景阳领先混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4812</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010888</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3794</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003231</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3642</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010585</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>创金合信医药消费股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3474</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011373</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商前沿医疗保健股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>16.51</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>63.82</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3418</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010593</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方医药创新股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3095</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>630010</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华商价值精选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2905</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009778</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长信消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2691</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>090020</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>大成健康产业混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2486</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001980</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中欧量化驱动混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>30.02</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2402</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>519655</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>银河现代服务主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2102</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011040</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>天弘国证生物医药指数A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2091</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010372</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>大成成长进取混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2072</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011041</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>天弘国证生物医药指数C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1794</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008988</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>大成科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1744</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>050018</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>博时行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1426</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000974</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>安信消费医药主题股票</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1276</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012426</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>南方价值臻选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>11.66</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>59.85</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1108</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>090016</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>大成消费主题混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1097</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>159883</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>永赢中证全指医疗器械交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1097</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>519959</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>84.87</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1023</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>013488</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>84.87</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1023</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>159839</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>汇添富国证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>99.44</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0874</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009361</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>招商创新增长混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0803</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008989</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>大成科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0746</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009779</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>长信消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0728</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001365</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>大成正向回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>88.71</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0636</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012358</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>汇丰晋信医疗先锋混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>24.35</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>630006</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华商产业升级混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>85.55</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>090009</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>大成行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>002434</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中银宏利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>27.25</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002261</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中银宝利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>27.20</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>003966</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中银润利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>25.47</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>159859</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>天弘国证生物医药交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>99.28</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010808</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>达诚策略先锋混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>86.68</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>159898</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>招商中证全指医疗器械交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>002614</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中银颐利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>27.46</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010586</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>创金合信医药消费股票C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001536</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>南方君选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>56.57</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>002615</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中银颐利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>27.46</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001181</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>南方改革机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>67.13</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>003967</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中银润利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>25.47</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011374</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>招商前沿医疗保健股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>63.82</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010690</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>002435</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中银宏利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>27.25</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010809</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>达诚策略先锋混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>86.68</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>005520</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>国投瑞银创新医疗灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>202213</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>南方核心竞争混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>62.95</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>002262</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中银宝利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>27.20</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>519987</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>长信恒利优势混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>007613</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>嘉合医疗健康混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010691</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>012427</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>南方价值臻选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>59.85</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>012359</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>汇丰晋信医疗先锋混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>24.35</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>003366</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>浙商汇金中证转型成长指数</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603392-万泰生物.xlsx
+++ b/数据整理/stocks/A股/上证主板/603392-万泰生物.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5989,4 +5990,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>68</v>
+      </c>
+      <c r="D2" t="n">
+        <v>22.51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>36</v>
+      </c>
+      <c r="D3" t="n">
+        <v>20.73</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>26</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.949999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603392-万泰生物.xlsx
+++ b/数据整理/stocks/A股/上证主板/603392-万泰生物.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5998,7 +5999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6009,17 +6010,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6029,14 +6050,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>68</v>
-      </c>
-      <c r="D2" t="n">
-        <v>22.51</v>
+          <t>161726</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商国证生物医药指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>163.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.3265</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -6045,14 +6088,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>36</v>
-      </c>
-      <c r="D3" t="n">
-        <v>20.73</v>
+          <t>009360</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商创新增长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>44.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7922</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -6061,14 +6126,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>26</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10.7</v>
+          <t>000960</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商医药健康产业股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>34.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.6573</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -6077,13 +6164,2393 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>000452</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方医药保健灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>37.15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.3553</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501079</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.81</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5420</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011373</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商前沿医疗保健股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3574</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>090003</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成蓝筹稳健混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17.92</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0967</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>512290</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰中证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>39.22</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0668</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010592</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方医药创新股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>27.91</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.93</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0466</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007553</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>24.17</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0272</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003230</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6936</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010371</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成成长进取混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.34</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6551</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009778</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长信消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5209</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>090001</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成价值增长混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>18.65</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>75.95</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5147</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519019</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成景阳领先混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10.33</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4865</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012184</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成创新趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>13.05</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>61.83</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4241</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003231</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4153</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008988</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大成科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3688</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010585</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>创金合信医药消费股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3647</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159828</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国泰中证医疗ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>13.90</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3628</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010593</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>南方医药创新股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.93</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3499</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012045</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>大成医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3365</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008274</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>大成行业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>69.71</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2935</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003291</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>信达澳银健康中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2920</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>160918</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>大成中小盘混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>70.27</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2910</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>090020</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>大成健康产业混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2801</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001915</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>宝盈医疗健康沪港深股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2542</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>159883</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>永赢中证全指医疗器械交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>99.96</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2480</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001667</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>南方转型增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>13.02</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2383</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011598</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>信达澳银医药健康混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2173</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010372</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>大成成长进取混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>86.34</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1959</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010881</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>南方宝顺混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>52.63</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>20.85</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1579</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012093</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏华创新升级混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>66.98</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1515</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>163001</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长信医疗保健行业灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1302</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>519959</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1245</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004683</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>建信高端医疗股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>77.80</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1243</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>159839</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>汇添富国证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>98.98</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1176</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>159898</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>招商中证全指医疗器械交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1106</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002408</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1046</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011374</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>招商前沿医疗保健股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1023</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008989</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>大成科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0889</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011746</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>南方誉浦一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>28.40</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>20.82</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0852</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>159859</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>天弘国证生物医药交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0792</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009361</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>招商创新增长混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009779</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>长信消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0775</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>159891</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>建信中证全指医疗保健设备与服务交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>98.47</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0709</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001365</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>大成正向回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0692</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>159873</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>天弘中证全指医疗保健设备与服务ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>99.45</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0643</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010586</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>创金合信医药消费股票C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>510660</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华夏上证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>98.06</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>012046</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>大成医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>516610</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>大成中证全指医疗保健设备与服务交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>96.32</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>519987</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>长信恒利优势混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>008275</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>大成行业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>69.71</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011747</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>南方誉浦一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>20.82</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>012598</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华安国证生物医药指数A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>012185</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>大成创新趋势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>61.83</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>007613</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>嘉合医疗健康混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>84.05</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>012599</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华安国证生物医药指数C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>012094</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>鹏华创新升级混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>66.98</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011159</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>大成中小盘混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>70.27</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010882</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>南方宝顺混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>20.85</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>003366</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>浙商汇金中证转型成长指数</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>63</v>
+      </c>
+      <c r="D2" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>68</v>
+      </c>
+      <c r="D3" t="n">
+        <v>22.51</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>36</v>
+      </c>
+      <c r="D4" t="n">
+        <v>20.73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>26</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>10</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>8.949999999999999</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603392-万泰生物.xlsx
+++ b/数据整理/stocks/A股/上证主板/603392-万泰生物.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8449,7 +8450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8460,17 +8461,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8480,14 +8501,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>63</v>
-      </c>
-      <c r="D2" t="n">
-        <v>30</v>
+          <t>161726</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商国证生物医药指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>155.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.1269</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -8496,14 +8539,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>68</v>
-      </c>
-      <c r="D3" t="n">
-        <v>22.51</v>
+          <t>512170</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证医疗ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>130.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.1410</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -8512,14 +8577,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>36</v>
-      </c>
-      <c r="D4" t="n">
-        <v>20.73</v>
+          <t>002408</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.5577</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -8528,14 +8615,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>26</v>
-      </c>
-      <c r="D5" t="n">
-        <v>10.7</v>
+          <t>000960</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商医药健康产业股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>31.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.44</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.4195</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -8544,13 +8653,6701 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>000452</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方医药保健灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>31.88</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.0053</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005453</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源医疗健康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>24.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.7744</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001822</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华商智能生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>21.89</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.6133</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>050026</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时医疗保健行业混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>44.26</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.4119</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012186</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商品质成长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>22.81</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.16</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.3868</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>512290</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰中证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>34.44</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.3466</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001417</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>38.45</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>77.97</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.3304</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>015122</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>38.45</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>77.97</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.3304</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007553</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.34</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.3287</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010592</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方医药创新股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>23.21</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.3114</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>501079</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>17.69</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>79.13</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.2878</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>090003</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成蓝筹稳健混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>17.92</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.1092</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011373</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商前沿医疗保健股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.9516</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005454</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>前海开源医疗健康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>12.66</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.9229</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>090001</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>大成价值增长混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>18.65</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>61.32</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.8094</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003230</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.7933</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009360</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商创新增长混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5835</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>159859</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>天弘国证生物医药交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>11.04</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.63</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5365</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>502056</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发中证医疗指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>17.38</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5266</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>159828</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国泰中证医疗ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>13.16</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5264</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010090</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5241</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001933</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华商新兴活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.5003</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011335</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>银河医药健康混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.69</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4837</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>161601</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>融通新蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>12.84</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>65.89</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4725</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010593</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>南方医药创新股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4548</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>159883</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>永赢中证全指医疗器械交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4548</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000547</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>建信健康民生混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>10.70</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>82.38</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4419</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>003231</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.4207</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010585</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>创金合信医药消费股票A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.4169</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012187</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>招商品质成长混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>84.16</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.4165</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009778</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长信消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>83.25</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3372</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>161122</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>11.47</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3361</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010371</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>大成成长进取混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>80.17</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2964</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>090020</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>大成健康产业混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2903</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>516820</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>平安中证医药及医疗器械创新交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2779</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012045</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>大成医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2778</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001667</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>南方转型增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>18.61</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2773</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>003291</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>信达澳银健康中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2761</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001915</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>宝盈医疗健康沪港深股票</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2742</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>000006</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>21.21</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2736</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010779</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>11.33</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>87.57</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2708</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005689</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2643</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>501080</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中金科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>16.00</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>79.20</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2624</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>240020</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华宝医药生物优选混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>84.43</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2511</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011598</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>信达澳银医药健康混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2370</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009881</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>广发中证医疗指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2363</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009468</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>85.57</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2256</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>003295</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>南方安裕混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>45.06</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>21.20</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2208</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010091</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2196</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>160211</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>国泰中小盘成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2027</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001366</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>金鹰产业整合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1787</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>165313</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>建信优势动力混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1744</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>163001</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>长信医疗保健行业灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1721</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>159839</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>汇添富国证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>99.76</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1671</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>000968</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>10.39</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1662</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>519983</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1633</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011601</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>前海开源公共卫生主题精选股票A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1631</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>519655</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>银河现代服务主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1607</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>005589</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>长信企业精选两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1571</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>003956</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>南方现代教育股票</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>80.66</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1485</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>161035</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>富国中证医药主题指数增强型（LOF）</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1445</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>004683</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>建信高端医疗股票</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>85.74</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1406</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>519959</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1359</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>013488</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1359</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>009874</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>九泰久睿量化股票</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1278</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>001990</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中欧数据挖掘多因子灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>18.03</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>84.18</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1226</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>010908</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>大成沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>86.52</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1062</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>012358</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>汇丰晋信医疗先锋混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1052</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>007831</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0971</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>011895</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>博时医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0922</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010372</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>大成成长进取混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>80.17</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0913</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>006586</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>南方安裕混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>18.41</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>21.20</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0902</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>202019</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>南方策略优化混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0902</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>159847</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>易方达中证医疗交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>99.11</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0882</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>011374</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>招商前沿医疗保健股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0871</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>014135</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>中欧金安量化混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>67.44</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0858</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>159898</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>招商中证全指医疗器械交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0799</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>010998</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>博道消费智航股票型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0755</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>009361</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>招商创新增长混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0737</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>515960</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>嘉实中证医药健康100策略ETF</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>013209</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>金鹰大视野混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0637</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>011602</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>前海开源公共卫生主题精选股票C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>159873</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>天弘中证全指医疗保健设备与服务ETF</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>99.59</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>159891</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>建信中证全指医疗保健设备与服务交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>95.24</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0594</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>007832</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0548</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>166007</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>中欧互通精选混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>001884</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>中欧互通精选混合E</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>001897</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>88.12</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>011071</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>鹏华安悦一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>21.81</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>010909</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>大成沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>86.52</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>010586</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>创金合信医药消费股票C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>003284</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>中邮医药健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>75.04</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>006160</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>博道启航混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>000110</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>金鹰元安混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>22.33</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>210006</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>金鹰元禧混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>22.58</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>001692</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>南方国策动力股票</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>210010</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>金鹰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>23.34</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>000199</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>国泰量化策略收益混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>006881</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>华宝大健康混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>009469</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>85.57</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>013210</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>金鹰大视野混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>001067</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>鹏华弘盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>20.46</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>010780</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>87.57</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>004234</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>中欧数据挖掘多因子灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>84.18</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>510660</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>华夏上证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>98.37</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>003957</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>安信量化精选沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>83.77</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>210007</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>金鹰技术领先灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>23.08</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>516610</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>大成中证全指医疗保健设备与服务交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>96.20</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>006401</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>006034</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>富国MSCI中国A股国际通指数增强</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>001242</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>001243</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数I</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>210011</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>金鹰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>23.34</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>010572</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>011824</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>161037</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>富国中证高端制造指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>012046</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>大成医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>011500</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>九泰量化新兴产业混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>010120</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票A</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>009232</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>鹏华安惠混合A</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>21.93</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>519987</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>长信恒利优势混合</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>82.39</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>9.53</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>011228</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>002425</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>金鹰元禧混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>22.58</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>007861</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>010447</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>中邮未来成长混合A</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>79.42</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>005280</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>安信稳健阿尔法定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>32.86</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>009043</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>九泰久信量化股票</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>002513</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>金鹰元安混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>22.33</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>003958</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>安信量化精选沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>83.77</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>011377</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票A</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>004510</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>88.12</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>002982</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>012598</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>华安国证生物医药指数A</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>000056</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>建信消费升级混合</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>80.58</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>002196</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>金鹰技术领先灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>23.08</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>516560</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>华宝养老ETF</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>97.92</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>010159</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>014136</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>中欧金安量化混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>67.44</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>010584</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>渤海汇金新动能主题混合</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>014602</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>嘉实中证医疗指数A</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>001281</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>长安鑫利优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>585001</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>东吴中证新兴</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>006402</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>011825</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>007613</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>嘉合医疗健康混合</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>014603</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>嘉实中证医疗指数C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>970073</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>东证融汇成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>82.02</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>011378</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>006161</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>博道启航混合C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>012359</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>汇丰晋信医疗先锋混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>012599</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>华安国证生物医药指数C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>002072</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>长安鑫利优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>004724</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>007862</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>010448</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>中邮未来成长混合C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>79.42</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>001380</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>鹏华弘盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>20.46</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>161718</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>招商沪深300高贝塔指数</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>970074</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>东证融汇成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>82.02</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>005053</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>银河量化价值混合</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>80.73</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>004725</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>009233</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>鹏华安惠混合C</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>21.93</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>005429</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>渤海汇金睿选混合A</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>31.21</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>010121</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>005405</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>中金金序量化蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>159951</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>嘉实中关村A股ETF</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>005399</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>长信量化价值驱动混合A</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>004221</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>009669</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>长信量化价值驱动混合C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>011442</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>创金合信鑫瑞混合A</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>011443</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>创金合信鑫瑞混合C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>005493</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>鑫元价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>21.81</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>005430</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>渤海汇金睿选混合C</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>31.21</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>005406</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>中金金序量化蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G178" t="n">
+        <v>0</v>
+      </c>
+      <c r="H178" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>177</v>
+      </c>
+      <c r="D2" t="n">
+        <v>54.69</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>63</v>
+      </c>
+      <c r="D3" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>68</v>
+      </c>
+      <c r="D4" t="n">
+        <v>22.51</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>36</v>
+      </c>
+      <c r="D5" t="n">
+        <v>20.73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>26</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>10</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>8.949999999999999</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603392-万泰生物.xlsx
+++ b/数据整理/stocks/A股/上证主板/603392-万泰生物.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15230,7 +15231,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15241,17 +15242,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -15261,14 +15282,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>177</v>
-      </c>
-      <c r="D2" t="n">
-        <v>54.69</v>
+          <t>161726</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商国证生物医药指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>138.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.9879</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -15277,14 +15320,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>63</v>
-      </c>
-      <c r="D3" t="n">
-        <v>30</v>
+          <t>512170</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证医疗ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>145.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.4667</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -15293,14 +15358,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>68</v>
-      </c>
-      <c r="D4" t="n">
-        <v>22.51</v>
+          <t>000960</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商医药健康产业股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>33.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.7353</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -15309,14 +15396,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>36</v>
-      </c>
-      <c r="D5" t="n">
-        <v>20.73</v>
+          <t>002408</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8699</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -15325,14 +15434,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>26</v>
-      </c>
-      <c r="D6" t="n">
-        <v>10.7</v>
+          <t>012186</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商品质成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.7464</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -15341,13 +15472,4471 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>001417</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>39.91</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5006</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161616</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>融通医疗保健行业混合A/B</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0856</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002708</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大摩健康产业混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>20.08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0823</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011373</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商前沿医疗保健股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.31</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9897</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010592</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方医药创新股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>23.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9591</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007553</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.84</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9386</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>512290</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰中证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>37.32</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8397</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003230</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7430</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009360</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商创新增长混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6148</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012417</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商国证生物医药指数C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15.59</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5628</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012187</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商品质成长混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5267</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>090001</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大成价值增长混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13.41</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>70.17</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5230</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159859</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>天弘国证生物医药交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>12.47</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.99</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4776</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>502056</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发中证医疗指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>19.01</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4201</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003231</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4052</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>673060</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3948</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010585</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>创金合信医药消费股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3379</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010593</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方医药创新股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3353</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>159883</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>永赢中证全指医疗器械交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>98.49</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3295</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000594</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>大摩进取优选股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.03</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3262</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010090</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2989</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>360016</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>光大保德信行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>80.42</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2794</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>161122</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>10.41</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2488</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005689</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2137</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000968</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>15.51</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2047</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010091</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1978</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009881</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>广发中证医疗指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1956</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>090020</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>大成健康产业混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1870</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009778</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长信消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1816</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>519983</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1766</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>163001</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>长信医疗保健行业灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1567</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>012045</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>大成医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1420</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>159839</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>汇添富国证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1292</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007126</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>博道远航混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1239</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002472</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>光大保德信先进服务业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1161</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>519959</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1099</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>013488</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1099</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>014030</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>大摩健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1062</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001366</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>金鹰产业整合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1059</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>519673</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>银河康乐股票</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0996</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009258</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0963</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011374</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>招商前沿医疗保健股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0909</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>233011</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>大摩主题优选混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0801</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009275</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>融通医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0795</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009779</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>长信消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0769</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009361</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>招商创新增长混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0768</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>002310</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>创金合信沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0718</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>159847</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>易方达中证医疗交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0709</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>008602</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>方正富邦新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>71.10</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>007127</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>博道远航混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010998</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>博道消费智航股票型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0546</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>159898</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>招商中证全指医疗器械交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>99.36</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>515960</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>嘉实中证医药健康100策略ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>014867</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优悦安和混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>009893</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优悦安和混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>159873</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>天弘中证全指医疗保健设备与服务ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>99.54</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>159891</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>建信中证全指医疗保健设备与服务交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>002315</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>创金合信沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>001365</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>大成正向回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>002982</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>010586</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>创金合信医药消费股票C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>013350</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>光大保德信先进服务业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>159877</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>南方中证全指医疗保健ETF</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>99.46</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>000826</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>000827</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数E</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>006881</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>华宝大健康混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>002210</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>510660</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华夏上证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>161038</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>516610</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>大成中证全指医疗保健设备与服务交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>95.61</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>210006</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>金鹰元禧混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>24.21</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>014214</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>光大保德信核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>010572</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>210010</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>金鹰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>25.08</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>005237</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>银华医疗健康量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>012911</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>同泰沪深300指数量化增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>519987</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>长信恒利优势混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>011500</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>九泰量化新兴产业混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>011788</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>工银聚益混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>39.74</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>860008</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>光大阳光生活 18 个月持有期混合型集合资产管理计划A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>210007</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>金鹰技术领先灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>24.63</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>011377</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>014603</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>嘉实中证医疗指数C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>012598</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>华安国证生物医药指数A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>012046</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>大成医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>210011</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>金鹰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>25.08</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>002425</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>金鹰元禧混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>24.21</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>010159</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>519134</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>海富通富祥混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>23.23</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>005238</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>银华医疗健康量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>002196</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>金鹰技术领先灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>24.63</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>510190</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>华安上证龙头ETF</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>97.05</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>011378</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>012599</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>华安国证生物医药指数C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>014820</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>华安创新医药锐选量化股票A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>860060</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>光大阳光生活 18 个月持有期混合型集合资产管理计划B</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>015139</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>泰康医疗健康股票A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>010872</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>博时沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>014602</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>嘉实中证医疗指数A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>012912</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>同泰沪深300指数量化增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>003865</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>014215</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>光大保德信核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>015140</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>泰康医疗健康股票C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>008603</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>方正富邦新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>71.10</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>013154</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>长信医疗保健行业灵活配置混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>860061</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>光大阳光生活 18 个月持有期混合型集合资产管理计划C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>010873</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>博时沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>011442</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>创金合信鑫瑞混合A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>21.37</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>004221</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>011443</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>创金合信鑫瑞混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>21.37</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>015121</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>011789</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>工银聚益混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>39.74</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>0</v>
+      </c>
+      <c r="H118" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>015122</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>0</v>
+      </c>
+      <c r="H119" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>014171</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>0</v>
+      </c>
+      <c r="H120" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>119</v>
+      </c>
+      <c r="D2" t="n">
+        <v>33.51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>177</v>
+      </c>
+      <c r="D3" t="n">
+        <v>54.69</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>63</v>
+      </c>
+      <c r="D4" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>68</v>
+      </c>
+      <c r="D5" t="n">
+        <v>22.51</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>36</v>
+      </c>
+      <c r="D6" t="n">
+        <v>20.73</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>26</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>10</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>8.949999999999999</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603392-万泰生物.xlsx
+++ b/数据整理/stocks/A股/上证主板/603392-万泰生物.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="D2" t="n">
-        <v>33.51</v>
+        <v>13.51</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>177</v>
+        <v>119</v>
       </c>
       <c r="D3" t="n">
-        <v>54.69</v>
+        <v>33.51</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>63</v>
+        <v>177</v>
       </c>
       <c r="D4" t="n">
-        <v>30</v>
+        <v>54.69</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D5" t="n">
-        <v>22.51</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="D6" t="n">
-        <v>20.73</v>
+        <v>22.51</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D7" t="n">
-        <v>10.7</v>
+        <v>20.73</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>26</v>
+      </c>
+      <c r="D8" t="n">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>10</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>8.949999999999999</v>
       </c>
     </row>
@@ -600,6 +617,2074 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161726</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商国证生物医药指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>117.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.1761</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000960</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商医药健康产业股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0135</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012186</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商品质成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9006</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161616</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>融通医疗保健行业混合A/B</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7474</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012417</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商国证生物医药指数C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.74</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5926</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159859</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘国证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.46</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5379</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003231</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4864</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011373</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商前沿医疗保健股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4768</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009360</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商创新增长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3942</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012187</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商品质成长混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3854</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159883</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>永赢中证全指医疗器械ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.26</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3510</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003230</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2844</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010585</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>创金合信医药消费股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2584</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011813</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>融通创新动力混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.88</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2185</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>161122</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1994</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159839</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富国证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1464</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009778</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长信消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1315</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519983</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1298</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013349</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>创金合信大健康混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1269</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>163001</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长信医疗保健行业灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1134</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000219</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时裕益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0831</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013348</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>创金合信大健康混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0743</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519959</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009779</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长信消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009361</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商创新增长混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0585</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011374</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商前沿医疗保健股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009275</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>融通医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>159873</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>天弘中证全指医疗保健设备与服务ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>99.90</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>516790</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证全指医疗保健ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>97.64</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>159898</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>招商中证全指医疗器械ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010586</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>创金合信医药消费股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>159877</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>南方中证全指医疗保健ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>99.67</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>159891</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>建信中证全指医疗保健设备与服务ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>99.37</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010572</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>516610</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>大成中证全指医疗保健设备与服务ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>96.59</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>510660</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华夏上证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>159797</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>汇添富中证全指医疗器械ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>161037</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>富国中证高端制造指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>860029</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>光大阳光对冲策略6个月持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>63.41</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>519987</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>长信恒利优势混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011814</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>融通创新动力混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>79.88</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012599</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华安国证生物医药指数C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>012598</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华安国证生物医药指数A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>015774</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>013488</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>013154</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>长信医疗保健行业灵活配置混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>860028</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>光大阳光对冲策略6个月持有期灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>63.41</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>004606</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>上投摩根优选多因子股票</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>004918</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>79.07</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>004221</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>004917</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>79.07</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>860010</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>光大阳光对冲策略6个月持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>63.41</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005627</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>富国中证高端制造指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5171,7 +7256,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11951,7 +14036,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14401,7 +16486,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17041,7 +19126,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -18465,7 +20550,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -19509,7 +21594,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603392-万泰生物.xlsx
+++ b/数据整理/stocks/A股/上证主板/603392-万泰生物.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D2" t="n">
-        <v>13.51</v>
+        <v>20.16</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="D3" t="n">
-        <v>33.51</v>
+        <v>13.51</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>177</v>
+        <v>119</v>
       </c>
       <c r="D4" t="n">
-        <v>54.69</v>
+        <v>33.51</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>63</v>
+        <v>177</v>
       </c>
       <c r="D5" t="n">
-        <v>30</v>
+        <v>54.69</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D6" t="n">
-        <v>22.51</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="D7" t="n">
-        <v>20.73</v>
+        <v>22.51</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D8" t="n">
-        <v>10.7</v>
+        <v>20.73</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,466 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>26</v>
+      </c>
+      <c r="D9" t="n">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>10</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>8.949999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000960</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商医药健康产业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>32.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1388</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009360</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商创新增长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7444</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000452</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方医药保健灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5650</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519670</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银河行业混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3507</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009275</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>融通医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.78</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8064</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161616</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>融通医疗保健行业混合A/B</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22.78</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8064</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004448</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时汇智回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3094</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009361</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商创新增长混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1590</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>090009</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.93</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161727</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商增荣灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>52.76</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1070,2380 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161726</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商国证生物医药指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>126.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.4860</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512170</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证医疗ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>174.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.7625</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000960</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商医药健康产业股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>29.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2023</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012186</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商品质成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9854</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161616</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>融通医疗保健行业混合A/B</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.46</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9471</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159883</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>永赢中证全指医疗器械ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22.83</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.25</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7054</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011373</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商前沿医疗保健股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6484</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012417</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商国证生物医药指数C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16.28</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5796</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003231</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5683</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159859</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘国证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>14.77</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.75</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5554</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009360</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商创新增长混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4325</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012187</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商品质成长混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4222</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003230</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3701</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011813</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>融通创新动力混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.04</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3143</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010585</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>创金合信医药消费股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2959</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>970010</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>方正证券金立方一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>10.16</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>73.92</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2906</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>502056</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发中证医疗指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.38</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2169</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009881</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发中证医疗指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2042</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>161122</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2042</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>310318</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.70</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1958</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159839</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇添富国证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1698</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>163001</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长信医疗保健行业灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1241</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013349</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>创金合信大健康混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1187</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009778</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长信消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1057</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000219</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时裕益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0916</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011374</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商前沿医疗保健股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0746</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>159847</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>易方达中证医疗ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0736</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013348</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>创金合信大健康混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0705</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009275</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>融通医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009361</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>招商创新增长混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>519959</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>159643</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国泰国证疫苗与生物科技ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>98.04</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001056</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>北信瑞丰健康生活主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>159873</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>天弘中证全指医疗保健设备与服务ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>159898</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>招商中证全指医疗器械ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009779</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>长信消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010586</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>创金合信医药消费股票C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>516790</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证全指医疗保健ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>98.06</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>014589</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>招商成长先导股票A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>87.62</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>159891</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>建信中证全指医疗保健设备与服务ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>007804</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>016356</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华夏国证疫苗与生物科技指数C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>014603</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>嘉实中证医疗指数C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>159646</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华泰柏瑞国证疫苗与生物科技ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>98.55</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>159877</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>南方中证全指医疗保健ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>510660</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>上证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>516610</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>大成中证全指医疗保健设备与服务ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>97.46</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>159645</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>富国国证疫苗与生物科技ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>96.94</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010572</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>016355</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华夏国证疫苗与生物科技指数A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>159797</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>汇添富中证全指医疗器械ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>012599</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华安国证生物医药指数C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>519987</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>长信恒利优势混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>84.96</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>012598</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华安国证生物医药指数A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>014590</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>招商成长先导股票C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>87.62</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>015774</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>014602</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>嘉实中证医疗指数A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>013488</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011814</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>融通创新动力混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>86.04</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>013154</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>长信医疗保健行业灵活配置混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>970009</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>方正证券金立方一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>73.92</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2684,7 +5511,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7256,7 +10083,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14036,7 +16863,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16486,7 +19313,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -19126,7 +21953,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -20550,7 +23377,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -21592,440 +24419,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000960</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>招商医药健康产业股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>32.26</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.82</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.63</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.1388</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009360</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>招商创新增长混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>21.17</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>89.78</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>8.24</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.7444</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000452</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>南方医药保健灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>27.36</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.37</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.72</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.5650</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>519670</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>银河行业混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>20.10</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.64</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.72</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.3507</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009275</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>融通医疗保健行业混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>22.78</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.10</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.8064</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>161616</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>融通医疗保健行业混合A/B</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>22.78</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>90.10</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.8064</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>004448</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>博时汇智回报灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>8.34</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>81.29</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.3094</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009361</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>招商创新增长混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>89.78</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>8.24</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1590</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>090009</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>大成行业轮动混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>87.93</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0471</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>161727</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>招商增荣灵活配置混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>52.76</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0219</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>